--- a/Assets/Excel/Dialog/RunGame_EX.xlsx
+++ b/Assets/Excel/Dialog/RunGame_EX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E33B49-81A8-4578-B971-5CFE479596D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3E9CC-8758-4589-994D-C61B8590B5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="2355" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="1800" yWindow="1380" windowWidth="26640" windowHeight="15015" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -111,17 +111,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재앙'이라 불리는 원인불명의 자연재해가 대지를 휩쓸고 지나간 곳엔 막대한 양의 광석이 남겨져 있었고, 인류는 이 수수께끼의 광석을 '오리지늄'이라 불렀다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종족 구분없이 감염자들로만 이뤄진 단체로, 극단적으로 폐쇄적인 성향을 띄고 있다.</t>
   </si>
   <si>
     <t>로도스 아일랜드 제약회사. 대외적으론 제약회사라는 타이틀에 걸맞게 각 국가, 단체 및 개인 감염자용 치료 방안 연구를 진행 중</t>
-  </si>
-  <si>
-    <t>사망 시 광석병이 확산된다는 점과 위험한 잠재능력 때문에 각국에선 일찍이 감염자들을 격리하거나 추방하여 왔지만, 그들에게 어떻게 살아가야 할지에 대해 알려주는 이는 아무도 없었다.</t>
   </si>
   <si>
     <t>DIA_branch</t>
@@ -274,6 +267,16 @@
   </si>
   <si>
     <t>BGI_Blackout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재앙'이라 불리는 원인불명의 자연재해가 대지를 휩쓸고 지나간 곳엔 막대한 양의 광석이 남겨져 있었고
+인류는 이 수수께끼의 광석을 '오리지늄'이라 불렀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 광석병이 확산된다는 점과 위험한 잠재능력 때문에 각국에선 일찍이 감염자들을 격리하거나 추방하여 왔지만
+그들에게 어떻게 살아가야 할지에 대해 알려주는 이는 아무도 없었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,12 +426,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,6 +455,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,60 +784,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4ECD9-029C-4F43-A84B-E714F8F20A49}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="174.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
+      <c r="B6" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -927,355 +939,355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C66F347-528C-4286-9DA8-D4A26D275154}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="11.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="H4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="12">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>2</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>2</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>40</v>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Dialog/RunGame_EX.xlsx
+++ b/Assets/Excel/Dialog/RunGame_EX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3E9CC-8758-4589-994D-C61B8590B5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E092C3-937E-402D-822F-546E51AE0B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1380" windowWidth="26640" windowHeight="15015" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -784,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4ECD9-029C-4F43-A84B-E714F8F20A49}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C66F347-528C-4286-9DA8-D4A26D275154}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Dialog/RunGame_EX.xlsx
+++ b/Assets/Excel/Dialog/RunGame_EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E092C3-937E-402D-822F-546E51AE0B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E62B64-2F54-4D09-8B55-52821E713F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="1515" yWindow="1650" windowWidth="26505" windowHeight="13455" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -107,16 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오리지늄이 발견된 후 인류는 오리지늄을 이용해 물질의 고유 성질을 바꿀 수 있는 기술을 발견했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종족 구분없이 감염자들로만 이뤄진 단체로, 극단적으로 폐쇄적인 성향을 띄고 있다.</t>
-  </si>
-  <si>
-    <t>로도스 아일랜드 제약회사. 대외적으론 제약회사라는 타이틀에 걸맞게 각 국가, 단체 및 개인 감염자용 치료 방안 연구를 진행 중</t>
-  </si>
-  <si>
     <t>DIA_branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,13 +260,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재앙'이라 불리는 원인불명의 자연재해가 대지를 휩쓸고 지나간 곳엔 막대한 양의 광석이 남겨져 있었고
-인류는 이 수수께끼의 광석을 '오리지늄'이라 불렀다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 시 광석병이 확산된다는 점과 위험한 잠재능력 때문에 각국에선 일찍이 감염자들을 격리하거나 추방하여 왔지만
-그들에게 어떻게 살아가야 할지에 대해 알려주는 이는 아무도 없었다.</t>
+    <t>게임 로딩중 나오는 게임에 대한 팁1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 로딩중 나오는 게임에 대한 팁2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 로딩중 나오는 게임에 대한 팁3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 로딩중 나오는 게임에 대한 팁4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 로딩중 나오는 게임에 대한 팁5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +785,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -808,15 +808,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -832,10 +832,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -853,7 +853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70116711-78A4-4239-AC92-FDDB4003491D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -940,7 +942,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,43 +965,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
@@ -1007,22 +1009,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" s="10">
         <v>1</v>
@@ -1036,22 +1038,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J3" s="10">
         <v>1</v>
@@ -1062,16 +1064,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1079,19 +1081,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -1102,22 +1104,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J6" s="10">
         <v>1</v>
@@ -1128,28 +1130,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.3">
@@ -1157,16 +1159,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1174,19 +1176,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="J9" s="10">
         <v>1</v>
@@ -1197,25 +1199,25 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L10" s="6">
         <v>1</v>
@@ -1226,16 +1228,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1243,19 +1245,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -1266,28 +1268,28 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Dialog/RunGame_EX.xlsx
+++ b/Assets/Excel/Dialog/RunGame_EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game-Production\Assets\Excel\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E62B64-2F54-4D09-8B55-52821E713F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCBA10F-253B-484F-B8C8-A33731CCD2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1650" windowWidth="26505" windowHeight="13455" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="11040" yWindow="720" windowWidth="26490" windowHeight="13455" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C66F347-528C-4286-9DA8-D4A26D275154}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
